--- a/tut05/output/0501CS12.xlsx
+++ b/tut05/output/0501CS12.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.714285714285714</v>
+        <v>6.71</v>
       </c>
       <c r="C6" t="n">
-        <v>7.386363636363637</v>
+        <v>7.39</v>
       </c>
       <c r="D6" t="n">
-        <v>8.023255813953488</v>
+        <v>8.02</v>
       </c>
       <c r="E6" t="n">
-        <v>7.808510638297872</v>
+        <v>7.81</v>
       </c>
       <c r="F6" t="n">
-        <v>8.333333333333334</v>
+        <v>8.33</v>
       </c>
       <c r="G6" t="n">
         <v>8.1</v>
       </c>
       <c r="H6" t="n">
-        <v>8.512195121951219</v>
+        <v>8.51</v>
       </c>
       <c r="I6" t="n">
         <v>8.25</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.714285714285714</v>
+        <v>6.71</v>
       </c>
       <c r="C8" t="n">
-        <v>7.032258064516129</v>
+        <v>7.03</v>
       </c>
       <c r="D8" t="n">
-        <v>7.345588235294118</v>
+        <v>7.35</v>
       </c>
       <c r="E8" t="n">
-        <v>7.46448087431694</v>
+        <v>7.46</v>
       </c>
       <c r="F8" t="n">
-        <v>7.626666666666667</v>
+        <v>7.63</v>
       </c>
       <c r="G8" t="n">
-        <v>7.69811320754717</v>
+        <v>7.7</v>
       </c>
       <c r="H8" t="n">
-        <v>7.80718954248366</v>
+        <v>7.81</v>
       </c>
       <c r="I8" t="n">
-        <v>7.858381502890174</v>
+        <v>7.86</v>
       </c>
     </row>
   </sheetData>
